--- a/notebooks/CFL2/input/CFL2_NEM7_individuals.xlsx
+++ b/notebooks/CFL2/input/CFL2_NEM7_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CFL2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B9D475-4429-AF46-8ACD-C74D570157D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAF76A1-6360-C842-B652-240C4670B773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1120" windowWidth="34860" windowHeight="6700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>PMID</t>
   </si>
@@ -286,6 +286,9 @@
     <t>HP:0100297</t>
   </si>
   <si>
+    <t>observed</t>
+  </si>
+  <si>
     <t>Increased variability in muscle fiber diameter</t>
   </si>
   <si>
@@ -317,6 +320,33 @@
   </si>
   <si>
     <t>NP_619579.1:p.(Val7Met)</t>
+  </si>
+  <si>
+    <t>Breech presentation</t>
+  </si>
+  <si>
+    <t>HP:0001623</t>
+  </si>
+  <si>
+    <t>Abnormal nerve conduction velocity</t>
+  </si>
+  <si>
+    <t>HP:0040129</t>
+  </si>
+  <si>
+    <t>Muscle fibrillation</t>
+  </si>
+  <si>
+    <t>HP:0010546</t>
+  </si>
+  <si>
+    <t>P11Y</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>HP:0001249</t>
   </si>
 </sst>
 </file>
@@ -687,15 +717,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,16 +814,16 @@
         <v>83</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>86</v>
@@ -828,8 +858,20 @@
       <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="AS1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -918,16 +960,16 @@
         <v>84</v>
       </c>
       <c r="AD2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH2" t="s">
         <v>87</v>
@@ -962,8 +1004,20 @@
       <c r="AR2" t="s">
         <v>75</v>
       </c>
+      <c r="AS2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -989,13 +1043,13 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
         <v>54</v>
@@ -1081,8 +1135,20 @@
       <c r="AR3" t="s">
         <v>58</v>
       </c>
+      <c r="AS3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1108,10 +1174,10 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
         <v>80</v>
@@ -1156,22 +1222,22 @@
         <v>80</v>
       </c>
       <c r="AD4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH4" t="s">
         <v>73</v>
       </c>
       <c r="AI4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s">
         <v>85</v>
@@ -1196,6 +1262,18 @@
       </c>
       <c r="AR4" t="s">
         <v>73</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
